--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1810.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1810.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.177659321093113</v>
+        <v>0.893646240234375</v>
       </c>
       <c r="B1">
-        <v>2.356200360559575</v>
+        <v>1.589063048362732</v>
       </c>
       <c r="C1">
-        <v>3.6132633124191</v>
+        <v>6.080820083618164</v>
       </c>
       <c r="D1">
-        <v>3.179558166614352</v>
+        <v>1.844580411911011</v>
       </c>
       <c r="E1">
-        <v>1.154459958236378</v>
+        <v>1.111282587051392</v>
       </c>
     </row>
   </sheetData>
